--- a/data/input_data_min.xlsx
+++ b/data/input_data_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75D5F60-A1B1-43B3-AAA2-BFC42C1C7010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A75FEC3-C47D-4705-9DDE-734046861216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="80">
   <si>
     <t>0-4</t>
   </si>
@@ -276,19 +276,37 @@
     <t>Minesota</t>
   </si>
   <si>
-    <t>Lockdown</t>
+    <t>start_day</t>
   </si>
   <si>
-    <t>Introduce lockdown</t>
+    <t>relax_1</t>
   </si>
   <si>
-    <t>Lockdown relax</t>
+    <t>relax_2</t>
   </si>
   <si>
-    <t>Relax lockdown</t>
+    <t>lockdown_1</t>
   </si>
   <si>
-    <t>start_day</t>
+    <t>lockdown_2</t>
+  </si>
+  <si>
+    <t>Schools and Businesses</t>
+  </si>
+  <si>
+    <t>Schools, businesses, stay at home, restrict gatherings</t>
+  </si>
+  <si>
+    <t>stay at home lifted</t>
+  </si>
+  <si>
+    <t>Business closure lifted</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Proportion</t>
   </si>
 </sst>
 </file>
@@ -298,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +347,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,19 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -605,11 +622,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -644,7 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -664,8 +689,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -681,12 +706,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,70 +1079,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1110,123 +1150,544 @@
       <c r="A2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C2">
-        <v>6.7</v>
+        <v>188940</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="E2">
-        <v>6.9</v>
+        <v>194580</v>
       </c>
       <c r="F2">
-        <v>7.3</v>
+        <v>205860</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>197400</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="I2">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="J2">
-        <v>7.4</v>
+        <v>208680</v>
       </c>
       <c r="K2">
-        <v>7.4</v>
+        <v>208680</v>
       </c>
       <c r="L2">
-        <v>7.6</v>
+        <v>214320</v>
       </c>
       <c r="M2">
-        <v>7.6</v>
+        <v>214320</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>169200</v>
       </c>
       <c r="O2">
-        <v>4.4000000000000004</v>
+        <v>124080</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>84600</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>84600</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>112800</v>
       </c>
       <c r="S2">
-        <f>SUM(C2:R2)</f>
-        <v>97.8</v>
+        <f>SUM(C2:Q2)</f>
+        <v>2645160</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>6.7</v>
+        <v>188940</v>
       </c>
       <c r="D3">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="E3">
-        <v>6.9</v>
+        <v>194580</v>
       </c>
       <c r="F3">
-        <v>7.3</v>
+        <v>205860</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>197400</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="I3">
-        <v>6.5</v>
+        <v>183300</v>
       </c>
       <c r="J3">
-        <v>7.4</v>
+        <v>208680</v>
       </c>
       <c r="K3">
-        <v>7.4</v>
+        <v>208680</v>
       </c>
       <c r="L3">
-        <v>7.6</v>
+        <v>214320</v>
       </c>
       <c r="M3">
-        <v>7.6</v>
+        <v>214320</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>169200</v>
       </c>
       <c r="O3">
-        <v>4.4000000000000004</v>
+        <v>124080</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>84600</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>84600</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>112800</v>
       </c>
       <c r="S3">
-        <f>SUM(C3:R3)</f>
-        <v>97.8</v>
+        <f>SUM(C3:Q3)</f>
+        <v>2645160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="41">
+        <v>191193</v>
+      </c>
+      <c r="D4" s="41">
+        <v>194934.5</v>
+      </c>
+      <c r="E4" s="41">
+        <v>189105.5</v>
+      </c>
+      <c r="F4" s="41">
+        <v>183861</v>
+      </c>
+      <c r="G4" s="42">
+        <v>181430</v>
+      </c>
+      <c r="H4" s="41">
+        <v>185666.25</v>
+      </c>
+      <c r="I4">
+        <v>185666.25</v>
+      </c>
+      <c r="J4" s="42">
+        <v>192201</v>
+      </c>
+      <c r="K4">
+        <v>192201</v>
+      </c>
+      <c r="L4">
+        <v>156976</v>
+      </c>
+      <c r="M4">
+        <v>156976</v>
+      </c>
+      <c r="N4" s="42">
+        <v>119337.5</v>
+      </c>
+      <c r="O4" s="41">
+        <v>101848.5</v>
+      </c>
+      <c r="P4" s="42">
+        <v>90960.25</v>
+      </c>
+      <c r="Q4">
+        <v>90960.25</v>
+      </c>
+      <c r="R4" s="42">
+        <v>58868.25</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S5" si="0">SUM(C4:Q4)</f>
+        <v>2413317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>191193</v>
+      </c>
+      <c r="D5">
+        <v>194934.5</v>
+      </c>
+      <c r="E5">
+        <v>189105.5</v>
+      </c>
+      <c r="F5">
+        <v>183861</v>
+      </c>
+      <c r="G5">
+        <v>181430</v>
+      </c>
+      <c r="H5">
+        <v>185666.25</v>
+      </c>
+      <c r="I5">
+        <v>185666.25</v>
+      </c>
+      <c r="J5">
+        <v>192201</v>
+      </c>
+      <c r="K5">
+        <v>192201</v>
+      </c>
+      <c r="L5">
+        <v>156976</v>
+      </c>
+      <c r="M5">
+        <v>156976</v>
+      </c>
+      <c r="N5">
+        <v>119337.5</v>
+      </c>
+      <c r="O5">
+        <v>101848.5</v>
+      </c>
+      <c r="P5">
+        <v>90960.25</v>
+      </c>
+      <c r="Q5">
+        <v>90960.25</v>
+      </c>
+      <c r="R5">
+        <v>58868.25</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2413317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f>C2+C3</f>
+        <v>377880</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:S6" si="1">D2+D3</f>
+        <v>366600</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>389160</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>411720</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>394800</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>366600</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>366600</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>417360</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>417360</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>428640</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>428640</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>338400</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>248160</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>169200</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>169200</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>225600</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>5290320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <f>C6/($S$2+$S$3)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:S7" si="2">D6/($S$2+$S$3)</f>
+        <v>6.9296375266524518E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>7.3560767590618331E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>7.7825159914712158E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>6.9296375266524518E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>6.9296375266524518E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>7.8891257995735611E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>7.8891257995735611E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>8.1023454157782518E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>8.1023454157782518E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>6.3965884861407252E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>4.6908315565031986E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>3.1982942430703626E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>3.1982942430703626E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>4.2643923240938165E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>C4+C5</f>
+        <v>382386</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:S8" si="3">D4+D5</f>
+        <v>389869</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>378211</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>367722</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>362860</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>371332.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>371332.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>384402</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>384402</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>313952</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>313952</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>238675</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>203697</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>181920.5</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>181920.5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>117736.5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>4826634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <f>C8/($S$4+$S$5)</f>
+        <v>7.9224154970109609E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:S9" si="4">D8/($S$4+$S$5)</f>
+        <v>8.0774510766716517E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>7.8359162928036394E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>7.618601286113677E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>7.5178685601601444E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>7.6934049691772782E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>7.6934049691772782E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>7.9641837354976569E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>7.9641837354976569E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>6.5045744094124391E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>6.5045744094124391E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>4.9449575004029724E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>4.2202702753098745E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>3.7690966416761659E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>3.7690966416761659E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>2.4393086362048583E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1234,70 +1695,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S17"/>
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1305,7 +1766,7 @@
       <c r="A2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1362,7 +1823,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1419,7 +1880,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -1476,7 +1937,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -1533,7 +1994,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1590,7 +2051,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -1647,7 +2108,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -1704,7 +2165,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -1761,7 +2222,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -1818,7 +2279,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -1875,7 +2336,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -1932,7 +2393,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -1989,7 +2450,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -2046,7 +2507,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -2103,7 +2564,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -2160,7 +2621,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -2215,9 +2676,924 @@
         <v>2.8144326209735691</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.61969873863987557</v>
+      </c>
+      <c r="D18">
+        <v>0.51930885326415877</v>
+      </c>
+      <c r="E18">
+        <v>0.27317103093736778</v>
+      </c>
+      <c r="F18">
+        <v>0.1220990843140809</v>
+      </c>
+      <c r="G18">
+        <v>0.17291475806902101</v>
+      </c>
+      <c r="H18">
+        <v>0.31709601117876612</v>
+      </c>
+      <c r="I18">
+        <v>0.5565418204061986</v>
+      </c>
+      <c r="J18">
+        <v>0.56240292718534357</v>
+      </c>
+      <c r="K18">
+        <v>0.21349284282175451</v>
+      </c>
+      <c r="L18">
+        <v>8.079024971058428E-2</v>
+      </c>
+      <c r="M18">
+        <v>6.1796659171411188E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.9986530173469729E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.078519260972914E-2</v>
+      </c>
+      <c r="P18">
+        <v>9.4638499050793794E-3</v>
+      </c>
+      <c r="Q18">
+        <v>2.7711226752344682E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.4855420935287181E-3</v>
+      </c>
+      <c r="S18">
+        <v>3.5668052131556029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.31930133357744173</v>
+      </c>
+      <c r="D19">
+        <v>0.98541608337489539</v>
+      </c>
+      <c r="E19">
+        <v>0.4877969736720652</v>
+      </c>
+      <c r="F19">
+        <v>0.16195920244802611</v>
+      </c>
+      <c r="G19">
+        <v>4.3457131507647587E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.19998306063301061</v>
+      </c>
+      <c r="I19">
+        <v>0.51032027296683324</v>
+      </c>
+      <c r="J19">
+        <v>0.645337023249687</v>
+      </c>
+      <c r="K19">
+        <v>0.46191402339646931</v>
+      </c>
+      <c r="L19">
+        <v>0.12776537347105479</v>
+      </c>
+      <c r="M19">
+        <v>5.2259648466374167E-2</v>
+      </c>
+      <c r="N19">
+        <v>2.668950530223094E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.327643914610107E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.020265687875028E-2</v>
+      </c>
+      <c r="Q19">
+        <v>3.9208192751110536E-3</v>
+      </c>
+      <c r="R19">
+        <v>3.3901430134257171E-3</v>
+      </c>
+      <c r="S19">
+        <v>4.0529896903791238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.17718134683672379</v>
+      </c>
+      <c r="D20">
+        <v>0.51993231380126026</v>
+      </c>
+      <c r="E20">
+        <v>1.523920062409531</v>
+      </c>
+      <c r="F20">
+        <v>0.40228849022523561</v>
+      </c>
+      <c r="G20">
+        <v>5.9383389650805238E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.9346697096150789E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.19834689605494929</v>
+      </c>
+      <c r="J20">
+        <v>0.48200013919098461</v>
+      </c>
+      <c r="K20">
+        <v>0.55487703325535764</v>
+      </c>
+      <c r="L20">
+        <v>0.21334596097495201</v>
+      </c>
+      <c r="M20">
+        <v>7.9429941595848513E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.4421556195950569E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.256075952087831E-2</v>
+      </c>
+      <c r="P20">
+        <v>1.249583723902436E-2</v>
+      </c>
+      <c r="Q20">
+        <v>8.279824777708342E-3</v>
+      </c>
+      <c r="R20">
+        <v>3.76310749565588E-3</v>
+      </c>
+      <c r="S20">
+        <v>4.3115733563210163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>8.5270794326373564E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.1634655167866628</v>
+      </c>
+      <c r="E21">
+        <v>0.45802860732744471</v>
+      </c>
+      <c r="F21">
+        <v>1.290056514650987</v>
+      </c>
+      <c r="G21">
+        <v>0.19608956712862941</v>
+      </c>
+      <c r="H21">
+        <v>4.8415237082093387E-2</v>
+      </c>
+      <c r="I21">
+        <v>4.9507148439117819E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.2447208048376496</v>
+      </c>
+      <c r="K21">
+        <v>0.43903350853856721</v>
+      </c>
+      <c r="L21">
+        <v>0.36973979800814699</v>
+      </c>
+      <c r="M21">
+        <v>0.18667622279583851</v>
+      </c>
+      <c r="N21">
+        <v>5.8342071323631568E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.611604249113267E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.5775648331884249E-2</v>
+      </c>
+      <c r="Q21">
+        <v>5.8131818691644936E-3</v>
+      </c>
+      <c r="R21">
+        <v>2.6736776283368159E-3</v>
+      </c>
+      <c r="S21">
+        <v>3.629724341565661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.1478417185798506</v>
+      </c>
+      <c r="D22">
+        <v>7.0406143057896858E-2</v>
+      </c>
+      <c r="E22">
+        <v>8.4660923615236153E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.35768278848216489</v>
+      </c>
+      <c r="G22">
+        <v>1.208624753028102</v>
+      </c>
+      <c r="H22">
+        <v>0.20884701972396169</v>
+      </c>
+      <c r="I22">
+        <v>5.6970339595179879E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.7083629650777191E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.13670317067111079</v>
+      </c>
+      <c r="L22">
+        <v>0.31934191487618502</v>
+      </c>
+      <c r="M22">
+        <v>0.19062797912647891</v>
+      </c>
+      <c r="N22">
+        <v>0.10800255558228671</v>
+      </c>
+      <c r="O22">
+        <v>1.94651016060754E-2</v>
+      </c>
+      <c r="P22">
+        <v>5.5875465430559974E-3</v>
+      </c>
+      <c r="Q22">
+        <v>4.1289364477471047E-3</v>
+      </c>
+      <c r="R22">
+        <v>3.219008945833397E-3</v>
+      </c>
+      <c r="S22">
+        <v>2.949193529531942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.3976603189755612</v>
+      </c>
+      <c r="D23">
+        <v>0.17802320481836151</v>
+      </c>
+      <c r="E23">
+        <v>4.3947790376431657E-2</v>
+      </c>
+      <c r="F23">
+        <v>8.290010749152231E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.23194145003234701</v>
+      </c>
+      <c r="H23">
+        <v>0.99295240675387897</v>
+      </c>
+      <c r="I23">
+        <v>0.22154003563811769</v>
+      </c>
+      <c r="J23">
+        <v>3.05630158965145E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.418769497448942E-2</v>
+      </c>
+      <c r="L23">
+        <v>7.0238020714514945E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.1595808418760109</v>
+      </c>
+      <c r="N23">
+        <v>0.1161322460451831</v>
+      </c>
+      <c r="O23">
+        <v>4.3053965173040158E-2</v>
+      </c>
+      <c r="P23">
+        <v>8.0376594078613462E-3</v>
+      </c>
+      <c r="Q23">
+        <v>1.035009265019716E-3</v>
+      </c>
+      <c r="R23">
+        <v>4.1776134695652497E-3</v>
+      </c>
+      <c r="S23">
+        <v>2.5959713809084199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.48279883411940788</v>
+      </c>
+      <c r="D24">
+        <v>0.54738936640994307</v>
+      </c>
+      <c r="E24">
+        <v>0.27023775728018817</v>
+      </c>
+      <c r="F24">
+        <v>5.3308474952563301E-2</v>
+      </c>
+      <c r="G24">
+        <v>6.3372805900721585E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.1976240965638193</v>
+      </c>
+      <c r="I24">
+        <v>0.88060706508015019</v>
+      </c>
+      <c r="J24">
+        <v>0.19162270816254409</v>
+      </c>
+      <c r="K24">
+        <v>8.3305812944590107E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.7345128672293451E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.1822033182398263E-2</v>
+      </c>
+      <c r="N24">
+        <v>5.0587499749247047E-2</v>
+      </c>
+      <c r="O24">
+        <v>4.6980189303852747E-2</v>
+      </c>
+      <c r="P24">
+        <v>7.4877167106613962E-3</v>
+      </c>
+      <c r="Q24">
+        <v>3.6112444629112271E-3</v>
+      </c>
+      <c r="R24">
+        <v>2.5532874849723301E-3</v>
+      </c>
+      <c r="S24">
+        <v>2.930654020980263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.45328125058501001</v>
+      </c>
+      <c r="D25">
+        <v>0.74278933093205335</v>
+      </c>
+      <c r="E25">
+        <v>0.60155686875189596</v>
+      </c>
+      <c r="F25">
+        <v>0.23332652289149741</v>
+      </c>
+      <c r="G25">
+        <v>3.001240892200361E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.2099731833460772E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.14567765278742381</v>
+      </c>
+      <c r="J25">
+        <v>0.91703313233725503</v>
+      </c>
+      <c r="K25">
+        <v>0.17685763160578219</v>
+      </c>
+      <c r="L25">
+        <v>3.7459357399074557E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.298654830442929E-2</v>
+      </c>
+      <c r="N25">
+        <v>1.6382851462925129E-2</v>
+      </c>
+      <c r="O25">
+        <v>2.9149293357457778E-2</v>
+      </c>
+      <c r="P25">
+        <v>1.6190687828047751E-2</v>
+      </c>
+      <c r="Q25">
+        <v>6.1502193486830279E-3</v>
+      </c>
+      <c r="R25">
+        <v>1.9332739258649139E-3</v>
+      </c>
+      <c r="S25">
+        <v>3.462886762272865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.2121721018053484</v>
+      </c>
+      <c r="D26">
+        <v>0.50095403332651323</v>
+      </c>
+      <c r="E26">
+        <v>0.65196680337327961</v>
+      </c>
+      <c r="F26">
+        <v>0.44861026055557202</v>
+      </c>
+      <c r="G26">
+        <v>0.1030330929272197</v>
+      </c>
+      <c r="H26">
+        <v>2.6288588418927089E-2</v>
+      </c>
+      <c r="I26">
+        <v>8.9226323910685745E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.18657727677081201</v>
+      </c>
+      <c r="K26">
+        <v>0.73249950590968005</v>
+      </c>
+      <c r="L26">
+        <v>0.1202031506394767</v>
+      </c>
+      <c r="M26">
+        <v>3.6477074419668291E-2</v>
+      </c>
+      <c r="N26">
+        <v>6.6137924499284221E-3</v>
+      </c>
+      <c r="O26">
+        <v>2.3744852860144629E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.532257538368134E-2</v>
+      </c>
+      <c r="Q26">
+        <v>1.1007036058564641E-2</v>
+      </c>
+      <c r="R26">
+        <v>4.9299290451300616E-3</v>
+      </c>
+      <c r="S26">
+        <v>3.1796263978546309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.13625913628933151</v>
+      </c>
+      <c r="D27">
+        <v>0.27871032427025172</v>
+      </c>
+      <c r="E27">
+        <v>0.45379324991841169</v>
+      </c>
+      <c r="F27">
+        <v>0.6183423543320512</v>
+      </c>
+      <c r="G27">
+        <v>0.33837918072304513</v>
+      </c>
+      <c r="H27">
+        <v>8.5128129986149201E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.0915997973674281E-2</v>
+      </c>
+      <c r="J27">
+        <v>9.3554337758299674E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.1652417126260991</v>
+      </c>
+      <c r="L27">
+        <v>0.75766440714440808</v>
+      </c>
+      <c r="M27">
+        <v>0.1429206888384171</v>
+      </c>
+      <c r="N27">
+        <v>3.3595936174832419E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.4120675689961171E-2</v>
+      </c>
+      <c r="P27">
+        <v>9.8963210946687655E-3</v>
+      </c>
+      <c r="Q27">
+        <v>9.1649180869296694E-3</v>
+      </c>
+      <c r="R27">
+        <v>1.458046490213989E-2</v>
+      </c>
+      <c r="S27">
+        <v>3.1822678358086711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.19468034463774619</v>
+      </c>
+      <c r="D28">
+        <v>0.17842525811882259</v>
+      </c>
+      <c r="E28">
+        <v>0.332586995417395</v>
+      </c>
+      <c r="F28">
+        <v>0.41293399957734039</v>
+      </c>
+      <c r="G28">
+        <v>0.35606468712225869</v>
+      </c>
+      <c r="H28">
+        <v>0.22283562066637641</v>
+      </c>
+      <c r="I28">
+        <v>8.839893969807712E-2</v>
+      </c>
+      <c r="J28">
+        <v>5.372579722533382E-2</v>
+      </c>
+      <c r="K28">
+        <v>9.7244756556962603E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.17822478599607389</v>
+      </c>
+      <c r="M28">
+        <v>0.73249236715242605</v>
+      </c>
+      <c r="N28">
+        <v>0.16174567858702751</v>
+      </c>
+      <c r="O28">
+        <v>3.2856463947392438E-2</v>
+      </c>
+      <c r="P28">
+        <v>7.8488109687200359E-3</v>
+      </c>
+      <c r="Q28">
+        <v>8.5607829526352548E-3</v>
+      </c>
+      <c r="R28">
+        <v>1.7963340803741481E-2</v>
+      </c>
+      <c r="S28">
+        <v>3.07658862942833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.2917246094458063</v>
+      </c>
+      <c r="D29">
+        <v>0.29616139570469119</v>
+      </c>
+      <c r="E29">
+        <v>0.22264573850600691</v>
+      </c>
+      <c r="F29">
+        <v>0.33221013984806957</v>
+      </c>
+      <c r="G29">
+        <v>0.30779020939442508</v>
+      </c>
+      <c r="H29">
+        <v>0.36734582943818639</v>
+      </c>
+      <c r="I29">
+        <v>0.24990875975732291</v>
+      </c>
+      <c r="J29">
+        <v>8.1119869756532514E-2</v>
+      </c>
+      <c r="K29">
+        <v>4.2156613613218347E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.1322265063126363</v>
+      </c>
+      <c r="M29">
+        <v>0.24003017409510971</v>
+      </c>
+      <c r="N29">
+        <v>0.79826001195674778</v>
+      </c>
+      <c r="O29">
+        <v>0.1657354874593196</v>
+      </c>
+      <c r="P29">
+        <v>3.8899001049629088E-2</v>
+      </c>
+      <c r="Q29">
+        <v>6.0501289541545289E-3</v>
+      </c>
+      <c r="R29">
+        <v>1.389074087297909E-2</v>
+      </c>
+      <c r="S29">
+        <v>3.5861552161648351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0.31134529409820949</v>
+      </c>
+      <c r="D30">
+        <v>0.28834434669726328</v>
+      </c>
+      <c r="E30">
+        <v>0.2058898648644652</v>
+      </c>
+      <c r="F30">
+        <v>0.18457333798675249</v>
+      </c>
+      <c r="G30">
+        <v>0.13843730865305101</v>
+      </c>
+      <c r="H30">
+        <v>0.19415649132730561</v>
+      </c>
+      <c r="I30">
+        <v>0.24950293862579759</v>
+      </c>
+      <c r="J30">
+        <v>0.17967601058066959</v>
+      </c>
+      <c r="K30">
+        <v>0.1018797966469735</v>
+      </c>
+      <c r="L30">
+        <v>4.8114473019489297E-2</v>
+      </c>
+      <c r="M30">
+        <v>9.8837602955819892E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.20723494786629501</v>
+      </c>
+      <c r="O30">
+        <v>0.66400198425770895</v>
+      </c>
+      <c r="P30">
+        <v>0.1036212259481058</v>
+      </c>
+      <c r="Q30">
+        <v>2.1956604262780909E-2</v>
+      </c>
+      <c r="R30">
+        <v>3.7991763247403202E-3</v>
+      </c>
+      <c r="S30">
+        <v>3.001371404115428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.21362463702654791</v>
+      </c>
+      <c r="D31">
+        <v>0.32217204248857839</v>
+      </c>
+      <c r="E31">
+        <v>0.29704949340625858</v>
+      </c>
+      <c r="F31">
+        <v>0.18085837972139859</v>
+      </c>
+      <c r="G31">
+        <v>0.1179460963612624</v>
+      </c>
+      <c r="H31">
+        <v>0.1106410184411893</v>
+      </c>
+      <c r="I31">
+        <v>0.1800640744179885</v>
+      </c>
+      <c r="J31">
+        <v>0.24091875751101141</v>
+      </c>
+      <c r="K31">
+        <v>0.25559079997534129</v>
+      </c>
+      <c r="L31">
+        <v>6.7540370646448147E-2</v>
+      </c>
+      <c r="M31">
+        <v>5.9720455420753479E-2</v>
+      </c>
+      <c r="N31">
+        <v>9.0416609239335546E-2</v>
+      </c>
+      <c r="O31">
+        <v>0.14470722386705889</v>
+      </c>
+      <c r="P31">
+        <v>0.60070458771345736</v>
+      </c>
+      <c r="Q31">
+        <v>8.5739884031059102E-2</v>
+      </c>
+      <c r="R31">
+        <v>9.1335633219010153E-3</v>
+      </c>
+      <c r="S31">
+        <v>2.9768279935895898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>8.7535051743233033E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.2803146037505162</v>
+      </c>
+      <c r="E32">
+        <v>0.25636190225638023</v>
+      </c>
+      <c r="F32">
+        <v>0.21274286482975721</v>
+      </c>
+      <c r="G32">
+        <v>4.2000323079455573E-2</v>
+      </c>
+      <c r="H32">
+        <v>7.7568571123864852E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.9270788270510475E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.1565752716407488</v>
+      </c>
+      <c r="K32">
+        <v>0.2587905839153285</v>
+      </c>
+      <c r="L32">
+        <v>0.1503111281205069</v>
+      </c>
+      <c r="M32">
+        <v>8.3948871423493762E-2</v>
+      </c>
+      <c r="N32">
+        <v>3.7343648814540963E-2</v>
+      </c>
+      <c r="O32">
+        <v>0.10147899237010211</v>
+      </c>
+      <c r="P32">
+        <v>0.13414629770358341</v>
+      </c>
+      <c r="Q32">
+        <v>0.40151916740089549</v>
+      </c>
+      <c r="R32">
+        <v>9.2435073603816947E-2</v>
+      </c>
+      <c r="S32">
+        <v>2.4423431400467339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>0.17867052833943259</v>
+      </c>
+      <c r="D33">
+        <v>0.22723956695633729</v>
+      </c>
+      <c r="E33">
+        <v>0.36993855816546489</v>
+      </c>
+      <c r="F33">
+        <v>0.28608324927924661</v>
+      </c>
+      <c r="G33">
+        <v>7.8801542020079648E-2</v>
+      </c>
+      <c r="H33">
+        <v>6.8464474082245624E-2</v>
+      </c>
+      <c r="I33">
+        <v>8.6063113504558322E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.17261569115783351</v>
+      </c>
+      <c r="K33">
+        <v>0.22253658799590159</v>
+      </c>
+      <c r="L33">
+        <v>0.26296910108123212</v>
+      </c>
+      <c r="M33">
+        <v>0.25285122777986668</v>
+      </c>
+      <c r="N33">
+        <v>8.8713983287576278E-2</v>
+      </c>
+      <c r="O33">
+        <v>3.5285301315390857E-2</v>
+      </c>
+      <c r="P33">
+        <v>6.6994453141113561E-2</v>
+      </c>
+      <c r="Q33">
+        <v>0.1152211397637133</v>
+      </c>
+      <c r="R33">
+        <v>0.3019841031035766</v>
+      </c>
+      <c r="S33">
+        <v>2.8144326209735691</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2225,70 +3601,70 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2296,7 +3672,7 @@
       <c r="A2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2353,7 +3729,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2410,7 +3786,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -2467,7 +3843,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -2524,7 +3900,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -2581,7 +3957,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -2638,7 +4014,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -2695,7 +4071,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -2752,7 +4128,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -2809,7 +4185,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -2866,7 +4242,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -2923,7 +4299,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -2980,7 +4356,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -3037,7 +4413,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -3094,7 +4470,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -3151,7 +4527,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -3206,9 +4582,924 @@
         <v>5.0025362262258448E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.1965976321090399</v>
+      </c>
+      <c r="D18">
+        <v>0.22592579703221941</v>
+      </c>
+      <c r="E18">
+        <v>4.3701464009243317E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.2889649717278032E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.421285098315694E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.1966409341004627E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.111307862582202</v>
+      </c>
+      <c r="J18">
+        <v>8.372315635915463E-2</v>
+      </c>
+      <c r="K18">
+        <v>4.0280972211866051E-2</v>
+      </c>
+      <c r="L18">
+        <v>4.9979048367368543E-2</v>
+      </c>
+      <c r="M18">
+        <v>2.7446561335746932E-2</v>
+      </c>
+      <c r="N18">
+        <v>1.8737687140838649E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.5941433281008869E-3</v>
+      </c>
+      <c r="P18">
+        <v>9.7737008561871283E-4</v>
+      </c>
+      <c r="Q18">
+        <v>8.2552267724998897E-66</v>
+      </c>
+      <c r="R18">
+        <v>6.3909612866531253E-120</v>
+      </c>
+      <c r="S18">
+        <v>1.9303406046028391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.28269949102927422</v>
+      </c>
+      <c r="D19">
+        <v>2.864955954694707</v>
+      </c>
+      <c r="E19">
+        <v>0.17238440625632581</v>
+      </c>
+      <c r="F19">
+        <v>2.148934278561275E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.9765245962529019E-2</v>
+      </c>
+      <c r="H19">
+        <v>5.5209040531599293E-2</v>
+      </c>
+      <c r="I19">
+        <v>7.1613142144806477E-2</v>
+      </c>
+      <c r="J19">
+        <v>6.9626834753361455E-2</v>
+      </c>
+      <c r="K19">
+        <v>6.9791362839115287E-2</v>
+      </c>
+      <c r="L19">
+        <v>5.2284963349797903E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.5730633320452629E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.4455122745332021E-2</v>
+      </c>
+      <c r="O19">
+        <v>5.9667328018229993E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.4564838281177449E-3</v>
+      </c>
+      <c r="Q19">
+        <v>3.4758339703519882E-4</v>
+      </c>
+      <c r="R19">
+        <v>8.0948986569444734E-39</v>
+      </c>
+      <c r="S19">
+        <v>3.7477763404398901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2.530614079088236E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.66924851698604582</v>
+      </c>
+      <c r="E20">
+        <v>4.2031136657187744</v>
+      </c>
+      <c r="F20">
+        <v>0.14699799476132411</v>
+      </c>
+      <c r="G20">
+        <v>1.354276879237068E-2</v>
+      </c>
+      <c r="H20">
+        <v>4.6052084097072128E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.6587419776027511E-2</v>
+      </c>
+      <c r="J20">
+        <v>7.6347789667156718E-2</v>
+      </c>
+      <c r="K20">
+        <v>8.2423493151520061E-2</v>
+      </c>
+      <c r="L20">
+        <v>6.8024307474459131E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.9469141420625702E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.5247667769855549E-2</v>
+      </c>
+      <c r="O20">
+        <v>6.7475834417493616E-3</v>
+      </c>
+      <c r="P20">
+        <v>7.7704892192048821E-4</v>
+      </c>
+      <c r="Q20">
+        <v>4.9409091239956754E-25</v>
+      </c>
+      <c r="R20">
+        <v>1.8231555754780811E-4</v>
+      </c>
+      <c r="S20">
+        <v>5.4372924116155366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.696112560850661E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.2312355856486043E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.4730986016108889</v>
+      </c>
+      <c r="F21">
+        <v>5.7130936061529338</v>
+      </c>
+      <c r="G21">
+        <v>6.1256478145341658E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.7550199509354957E-2</v>
+      </c>
+      <c r="I21">
+        <v>6.3774580585579554E-2</v>
+      </c>
+      <c r="J21">
+        <v>9.2255952976687886E-2</v>
+      </c>
+      <c r="K21">
+        <v>8.0418153744098872E-2</v>
+      </c>
+      <c r="L21">
+        <v>9.9895434648124282E-2</v>
+      </c>
+      <c r="M21">
+        <v>5.7089316883101933E-2</v>
+      </c>
+      <c r="N21">
+        <v>3.4197259019362929E-2</v>
+      </c>
+      <c r="O21">
+        <v>8.0584001467266988E-3</v>
+      </c>
+      <c r="P21">
+        <v>1.1903415627512199E-3</v>
+      </c>
+      <c r="Q21">
+        <v>6.2189278066822765E-33</v>
+      </c>
+      <c r="R21">
+        <v>1.7093057086336361E-70</v>
+      </c>
+      <c r="S21">
+        <v>7.7911518064499461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1.9103863511788399E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.5803821489967569E-2</v>
+      </c>
+      <c r="E22">
+        <v>6.7115579736067941E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.62648978471652239</v>
+      </c>
+      <c r="G22">
+        <v>0.30999373720917478</v>
+      </c>
+      <c r="H22">
+        <v>3.6265293923138209E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.4285630413155169E-2</v>
+      </c>
+      <c r="J22">
+        <v>3.041552627727721E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.007788616624754E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.5730320082645319E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.4141383195599299E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.014522956846222E-2</v>
+      </c>
+      <c r="O22">
+        <v>7.9451117597296723E-4</v>
+      </c>
+      <c r="P22">
+        <v>1.2812267596201991E-3</v>
+      </c>
+      <c r="Q22">
+        <v>1.7719034922565201E-4</v>
+      </c>
+      <c r="R22">
+        <v>1.219880037838444E-47</v>
+      </c>
+      <c r="S22">
+        <v>1.141416962812404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1.999603307530046E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.6942413226311193E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.5841401960491929E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.1471697171690782</v>
+      </c>
+      <c r="G23">
+        <v>0.20087404938405859</v>
+      </c>
+      <c r="H23">
+        <v>0.1218165794572787</v>
+      </c>
+      <c r="I23">
+        <v>2.121650277839356E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.8722827804166101E-2</v>
+      </c>
+      <c r="K23">
+        <v>3.5406751258304073E-2</v>
+      </c>
+      <c r="L23">
+        <v>3.2499234094472987E-2</v>
+      </c>
+      <c r="M23">
+        <v>8.8036753223696643E-3</v>
+      </c>
+      <c r="N23">
+        <v>1.449574225159787E-2</v>
+      </c>
+      <c r="O23">
+        <v>4.9846032243633463E-3</v>
+      </c>
+      <c r="P23">
+        <v>2.478329810170266E-3</v>
+      </c>
+      <c r="Q23">
+        <v>4.6321194847233132E-4</v>
+      </c>
+      <c r="R23">
+        <v>1.286364694003194E-3</v>
+      </c>
+      <c r="S23">
+        <v>0.74299743745883251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3.9211219629786381E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.25572654132276967</v>
+      </c>
+      <c r="E24">
+        <v>0.18092165362623031</v>
+      </c>
+      <c r="F24">
+        <v>0.12690098882331949</v>
+      </c>
+      <c r="G24">
+        <v>3.6590960124431603E-2</v>
+      </c>
+      <c r="H24">
+        <v>6.6407819204966786E-2</v>
+      </c>
+      <c r="I24">
+        <v>6.0149654702134278E-2</v>
+      </c>
+      <c r="J24">
+        <v>4.2655475899382463E-2</v>
+      </c>
+      <c r="K24">
+        <v>4.8201101736810109E-2</v>
+      </c>
+      <c r="L24">
+        <v>2.629812406146214E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.231712641723875E-2</v>
+      </c>
+      <c r="N24">
+        <v>3.4348310597130589E-3</v>
+      </c>
+      <c r="O24">
+        <v>6.3541215199630239E-3</v>
+      </c>
+      <c r="P24">
+        <v>4.6003098220556932E-4</v>
+      </c>
+      <c r="Q24">
+        <v>1.654789930812665E-48</v>
+      </c>
+      <c r="R24">
+        <v>3.11288529341753E-55</v>
+      </c>
+      <c r="S24">
+        <v>0.91562964911041378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>6.7382493241074898E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.15530426403182199</v>
+      </c>
+      <c r="E25">
+        <v>0.1217090060747134</v>
+      </c>
+      <c r="F25">
+        <v>6.8093276587131754E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.4678982624916549E-2</v>
+      </c>
+      <c r="H25">
+        <v>4.3693165046953572E-2</v>
+      </c>
+      <c r="I25">
+        <v>6.0733523270360031E-2</v>
+      </c>
+      <c r="J25">
+        <v>4.639476193694498E-2</v>
+      </c>
+      <c r="K25">
+        <v>5.3654303229926932E-2</v>
+      </c>
+      <c r="L25">
+        <v>2.6937114655387218E-2</v>
+      </c>
+      <c r="M25">
+        <v>4.1527955838624037E-3</v>
+      </c>
+      <c r="N25">
+        <v>9.757645393740192E-3</v>
+      </c>
+      <c r="O25">
+        <v>6.7808666049811893E-4</v>
+      </c>
+      <c r="P25">
+        <v>2.1764123050159521E-3</v>
+      </c>
+      <c r="Q25">
+        <v>1.8450175063453869E-123</v>
+      </c>
+      <c r="R25">
+        <v>9.699752320091819E-67</v>
+      </c>
+      <c r="S25">
+        <v>0.6753458306423481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>2.2371353637554572E-2</v>
+      </c>
+      <c r="D26">
+        <v>9.2436711514271505E-2</v>
+      </c>
+      <c r="E26">
+        <v>7.8524518491853698E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.34866038943609617</v>
+      </c>
+      <c r="G26">
+        <v>7.3099756580179403E-3</v>
+      </c>
+      <c r="H26">
+        <v>2.2705318390741101E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.2211135687642158E-2</v>
+      </c>
+      <c r="J26">
+        <v>3.0725957148486829E-2</v>
+      </c>
+      <c r="K26">
+        <v>6.8620543069894874E-2</v>
+      </c>
+      <c r="L26">
+        <v>2.568750657832616E-2</v>
+      </c>
+      <c r="M26">
+        <v>2.9791058241384189E-2</v>
+      </c>
+      <c r="N26">
+        <v>8.3802633516084947E-3</v>
+      </c>
+      <c r="O26">
+        <v>6.960731046059359E-3</v>
+      </c>
+      <c r="P26">
+        <v>5.0621304799295752E-4</v>
+      </c>
+      <c r="Q26">
+        <v>4.8147636184359091E-68</v>
+      </c>
+      <c r="R26">
+        <v>2.40361388235634E-92</v>
+      </c>
+      <c r="S26">
+        <v>0.76489167529992985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.1965900953822316</v>
+      </c>
+      <c r="D27">
+        <v>0.21929730327325281</v>
+      </c>
+      <c r="E27">
+        <v>0.15214132363445709</v>
+      </c>
+      <c r="F27">
+        <v>0.59913209558184788</v>
+      </c>
+      <c r="G27">
+        <v>5.5269781575928E-3</v>
+      </c>
+      <c r="H27">
+        <v>2.9621323583253579E-2</v>
+      </c>
+      <c r="I27">
+        <v>5.6907510166381063E-2</v>
+      </c>
+      <c r="J27">
+        <v>5.0338158162411793E-2</v>
+      </c>
+      <c r="K27">
+        <v>4.8948057268509038E-2</v>
+      </c>
+      <c r="L27">
+        <v>3.0930144829092319E-2</v>
+      </c>
+      <c r="M27">
+        <v>3.9498904759237528E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.8181070714194981E-2</v>
+      </c>
+      <c r="O27">
+        <v>4.3668463154438262E-3</v>
+      </c>
+      <c r="P27">
+        <v>1.819803889942624E-3</v>
+      </c>
+      <c r="Q27">
+        <v>6.2141274647183367E-134</v>
+      </c>
+      <c r="R27">
+        <v>3.2753507797362338E-72</v>
+      </c>
+      <c r="S27">
+        <v>1.453299615717849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>5.0031119325357538E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.37482659486864311</v>
+      </c>
+      <c r="E28">
+        <v>0.50172257437131029</v>
+      </c>
+      <c r="F28">
+        <v>0.59115714027509914</v>
+      </c>
+      <c r="G28">
+        <v>5.738182144034272E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.562495641379787E-2</v>
+      </c>
+      <c r="I28">
+        <v>4.3433214962052873E-2</v>
+      </c>
+      <c r="J28">
+        <v>4.3851977696820608E-2</v>
+      </c>
+      <c r="K28">
+        <v>5.6886488554607033E-2</v>
+      </c>
+      <c r="L28">
+        <v>8.1588924286717865E-2</v>
+      </c>
+      <c r="M28">
+        <v>4.282934863313323E-2</v>
+      </c>
+      <c r="N28">
+        <v>2.2783479791474531E-2</v>
+      </c>
+      <c r="O28">
+        <v>6.2747773593595218E-3</v>
+      </c>
+      <c r="P28">
+        <v>9.7172961715114476E-24</v>
+      </c>
+      <c r="Q28">
+        <v>1.239094001350889E-117</v>
+      </c>
+      <c r="R28">
+        <v>5.6470728119947264E-78</v>
+      </c>
+      <c r="S28">
+        <v>1.8367487786824079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.15534542213975261</v>
+      </c>
+      <c r="D29">
+        <v>0.35656203480792847</v>
+      </c>
+      <c r="E29">
+        <v>0.3292119821059436</v>
+      </c>
+      <c r="F29">
+        <v>0.40960952961745267</v>
+      </c>
+      <c r="G29">
+        <v>6.6735699858169956E-3</v>
+      </c>
+      <c r="H29">
+        <v>6.0493716039956992E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.3441449463904349E-2</v>
+      </c>
+      <c r="J29">
+        <v>4.0162219815252982E-2</v>
+      </c>
+      <c r="K29">
+        <v>5.2519842094274113E-2</v>
+      </c>
+      <c r="L29">
+        <v>3.9769267620673052E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.5848264896249031E-2</v>
+      </c>
+      <c r="N29">
+        <v>3.9753834231399582E-2</v>
+      </c>
+      <c r="O29">
+        <v>1.2003743190956871E-2</v>
+      </c>
+      <c r="P29">
+        <v>1.23044525130155E-31</v>
+      </c>
+      <c r="Q29">
+        <v>7.8259180784399928E-4</v>
+      </c>
+      <c r="R29">
+        <v>7.6299302289005791E-4</v>
+      </c>
+      <c r="S29">
+        <v>1.562940460840295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>7.3593896960813976E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.462386573145223E-2</v>
+      </c>
+      <c r="E30">
+        <v>4.0215392217826863E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.20523403556222819</v>
+      </c>
+      <c r="G30">
+        <v>1.441309068059576E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.974159321856443E-3</v>
+      </c>
+      <c r="I30">
+        <v>1.8156536005531621E-2</v>
+      </c>
+      <c r="J30">
+        <v>5.1392260152495289E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.164718548850768E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.9144270989433169E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.5367209356925491E-2</v>
+      </c>
+      <c r="N30">
+        <v>7.8000861196485588E-3</v>
+      </c>
+      <c r="O30">
+        <v>2.5815000220929561E-2</v>
+      </c>
+      <c r="P30">
+        <v>1.1807919696612211E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.4252819811933277E-67</v>
+      </c>
+      <c r="R30">
+        <v>2.121723586966525E-37</v>
+      </c>
+      <c r="S30">
+        <v>0.57118490850485704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>2.10669143337069E-3</v>
+      </c>
+      <c r="D31">
+        <v>2.8441645517982991E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.131259413223824E-2</v>
+      </c>
+      <c r="F31">
+        <v>8.4025677268976126E-32</v>
+      </c>
+      <c r="G31">
+        <v>2.010305874169822E-3</v>
+      </c>
+      <c r="H31">
+        <v>1.9774867526244611E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.2780108278379909E-2</v>
+      </c>
+      <c r="J31">
+        <v>5.6285989794061242E-3</v>
+      </c>
+      <c r="K31">
+        <v>5.7328648415309151E-3</v>
+      </c>
+      <c r="L31">
+        <v>9.3574790189956299E-3</v>
+      </c>
+      <c r="M31">
+        <v>2.1307358448445501E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.6193406093803289E-2</v>
+      </c>
+      <c r="O31">
+        <v>8.629649041178614E-3</v>
+      </c>
+      <c r="P31">
+        <v>1.7682260090243641E-2</v>
+      </c>
+      <c r="Q31">
+        <v>1.112528594744995E-2</v>
+      </c>
+      <c r="R31">
+        <v>3.4573036701592782E-126</v>
+      </c>
+      <c r="S31">
+        <v>0.13510911184621879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1.2838607786175159E-28</v>
+      </c>
+      <c r="D32">
+        <v>5.1125708417096289E-26</v>
+      </c>
+      <c r="E32">
+        <v>1.9315458517816162E-40</v>
+      </c>
+      <c r="F32">
+        <v>7.6135532287364121E-3</v>
+      </c>
+      <c r="G32">
+        <v>2.6362585605801411E-22</v>
+      </c>
+      <c r="H32">
+        <v>1.6978386558270509E-24</v>
+      </c>
+      <c r="I32">
+        <v>1.259044182856634E-26</v>
+      </c>
+      <c r="J32">
+        <v>7.6241343718109547E-3</v>
+      </c>
+      <c r="K32">
+        <v>7.8540920794984356E-3</v>
+      </c>
+      <c r="L32">
+        <v>2.1168491663364632E-2</v>
+      </c>
+      <c r="M32">
+        <v>3.5243624641015762E-2</v>
+      </c>
+      <c r="N32">
+        <v>2.145334471453E-2</v>
+      </c>
+      <c r="O32">
+        <v>7.7435181635520586E-3</v>
+      </c>
+      <c r="P32">
+        <v>8.0142800089188556E-3</v>
+      </c>
+      <c r="Q32">
+        <v>7.9128592462683611E-3</v>
+      </c>
+      <c r="R32">
+        <v>2.1382601901338859E-2</v>
+      </c>
+      <c r="S32">
+        <v>0.14601050001903429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2.8217203995950291E-94</v>
+      </c>
+      <c r="D33">
+        <v>2.1144000074997341E-2</v>
+      </c>
+      <c r="E33">
+        <v>8.4731350719260939E-42</v>
+      </c>
+      <c r="F33">
+        <v>2.1286722078128852E-2</v>
+      </c>
+      <c r="G33">
+        <v>4.899240885263989E-36</v>
+      </c>
+      <c r="H33">
+        <v>7.594640109132255E-3</v>
+      </c>
+      <c r="I33">
+        <v>9.7755813406249566E-69</v>
+      </c>
+      <c r="J33">
+        <v>2.2320492104404709E-60</v>
+      </c>
+      <c r="K33">
+        <v>1.4379372658787789E-48</v>
+      </c>
+      <c r="L33">
+        <v>8.5663673262732034E-60</v>
+      </c>
+      <c r="M33">
+        <v>4.6983922898413731E-42</v>
+      </c>
+      <c r="N33">
+        <v>1.599322009115185E-46</v>
+      </c>
+      <c r="O33">
+        <v>2.210866424119164E-83</v>
+      </c>
+      <c r="P33">
+        <v>8.8595680764357349E-107</v>
+      </c>
+      <c r="Q33">
+        <v>1.02042913074009E-80</v>
+      </c>
+      <c r="R33">
+        <v>6.6141445524672142E-113</v>
+      </c>
+      <c r="S33">
+        <v>5.0025362262258448E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3216,70 +5507,70 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3287,7 +5578,7 @@
       <c r="A2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -3344,7 +5635,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -3401,7 +5692,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -3458,7 +5749,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -3515,7 +5806,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -3572,7 +5863,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -3629,7 +5920,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -3686,7 +5977,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -3743,7 +6034,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -3800,7 +6091,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -3857,7 +6148,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -3914,7 +6205,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -3971,7 +6262,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -4028,7 +6319,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -4085,7 +6376,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -4142,7 +6433,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -4197,9 +6488,924 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>8.2060452414479945E-92</v>
+      </c>
+      <c r="Q18">
+        <v>1.2058515015357481E-5</v>
+      </c>
+      <c r="R18">
+        <v>3.1643683381115669E-125</v>
+      </c>
+      <c r="S18">
+        <v>1.2058515015357481E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.3495557764948161E-5</v>
+      </c>
+      <c r="Q19">
+        <v>7.6459132509916683E-79</v>
+      </c>
+      <c r="R19">
+        <v>2.383920728025148E-65</v>
+      </c>
+      <c r="S19">
+        <v>1.3495557764948161E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7.7920472791720569E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.8861394336795151E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.156683940830216E-2</v>
+      </c>
+      <c r="H20">
+        <v>6.2055101161526778E-3</v>
+      </c>
+      <c r="I20">
+        <v>5.0581908579205602E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.442139664885963E-2</v>
+      </c>
+      <c r="K20">
+        <v>5.0319864711768837E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.9419847515017299E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.20163225050931E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.9551547904810411E-8</v>
+      </c>
+      <c r="O20">
+        <v>2.9616860159185992E-17</v>
+      </c>
+      <c r="P20">
+        <v>2.7978031705087359E-53</v>
+      </c>
+      <c r="Q20">
+        <v>4.9580076999148522E-6</v>
+      </c>
+      <c r="R20">
+        <v>3.7771808267144161E-102</v>
+      </c>
+      <c r="S20">
+        <v>0.2813185441721629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3.3617652332420672E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.64408555572375581</v>
+      </c>
+      <c r="G21">
+        <v>0.55269255000013684</v>
+      </c>
+      <c r="H21">
+        <v>0.31609334891209551</v>
+      </c>
+      <c r="I21">
+        <v>0.29389143267149381</v>
+      </c>
+      <c r="J21">
+        <v>0.27330789577629622</v>
+      </c>
+      <c r="K21">
+        <v>0.30267629047347139</v>
+      </c>
+      <c r="L21">
+        <v>0.24016220888048931</v>
+      </c>
+      <c r="M21">
+        <v>0.1454755966951008</v>
+      </c>
+      <c r="N21">
+        <v>6.8929403715581344E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.333227245482926E-2</v>
+      </c>
+      <c r="P21">
+        <v>8.3469960156949892E-6</v>
+      </c>
+      <c r="Q21">
+        <v>2.8597282239804278E-6</v>
+      </c>
+      <c r="R21">
+        <v>1.8892612209825001E-31</v>
+      </c>
+      <c r="S21">
+        <v>2.8842754143599101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.7114862362869638E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.37251002238442738</v>
+      </c>
+      <c r="G22">
+        <v>0.77214046762323141</v>
+      </c>
+      <c r="H22">
+        <v>0.73590041574841769</v>
+      </c>
+      <c r="I22">
+        <v>0.61256218003455021</v>
+      </c>
+      <c r="J22">
+        <v>0.67520766365715179</v>
+      </c>
+      <c r="K22">
+        <v>0.5067842162098084</v>
+      </c>
+      <c r="L22">
+        <v>0.40849893290224948</v>
+      </c>
+      <c r="M22">
+        <v>0.32172965768994821</v>
+      </c>
+      <c r="N22">
+        <v>0.14759761990563169</v>
+      </c>
+      <c r="O22">
+        <v>3.9319260399802741E-2</v>
+      </c>
+      <c r="P22">
+        <v>9.8611340668542582E-6</v>
+      </c>
+      <c r="Q22">
+        <v>1.326093870262973E-5</v>
+      </c>
+      <c r="R22">
+        <v>3.7431804801341289E-6</v>
+      </c>
+      <c r="S22">
+        <v>4.6393921641713387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>6.0256645106452712E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.3256083273649632</v>
+      </c>
+      <c r="G23">
+        <v>0.73074597955368392</v>
+      </c>
+      <c r="H23">
+        <v>1.2237410098976289</v>
+      </c>
+      <c r="I23">
+        <v>0.87334512685294097</v>
+      </c>
+      <c r="J23">
+        <v>0.85304132731198801</v>
+      </c>
+      <c r="K23">
+        <v>0.78341666593073733</v>
+      </c>
+      <c r="L23">
+        <v>0.55279614832290136</v>
+      </c>
+      <c r="M23">
+        <v>0.46871289388568388</v>
+      </c>
+      <c r="N23">
+        <v>0.21622658169348111</v>
+      </c>
+      <c r="O23">
+        <v>5.2154649218617233E-2</v>
+      </c>
+      <c r="P23">
+        <v>1.606746272092466E-5</v>
+      </c>
+      <c r="Q23">
+        <v>1.0118260764952541E-5</v>
+      </c>
+      <c r="R23">
+        <v>3.01442534314934E-6</v>
+      </c>
+      <c r="S23">
+        <v>6.1400745552879066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>6.8092380967084781E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.17549466830530569</v>
+      </c>
+      <c r="G24">
+        <v>0.50499385254981399</v>
+      </c>
+      <c r="H24">
+        <v>0.82800779694309889</v>
+      </c>
+      <c r="I24">
+        <v>1.080698957713381</v>
+      </c>
+      <c r="J24">
+        <v>0.94816134429338073</v>
+      </c>
+      <c r="K24">
+        <v>0.84469612353439127</v>
+      </c>
+      <c r="L24">
+        <v>0.69408009342332611</v>
+      </c>
+      <c r="M24">
+        <v>0.43184991056137861</v>
+      </c>
+      <c r="N24">
+        <v>0.2515958475559974</v>
+      </c>
+      <c r="O24">
+        <v>4.8705561793882461E-2</v>
+      </c>
+      <c r="P24">
+        <v>1.6379556286167829E-5</v>
+      </c>
+      <c r="Q24">
+        <v>4.1010085071125459E-6</v>
+      </c>
+      <c r="R24">
+        <v>3.4947898021319551E-6</v>
+      </c>
+      <c r="S24">
+        <v>5.8764005129956374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4.1891724647026111E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.35018775499068722</v>
+      </c>
+      <c r="G25">
+        <v>0.41908495725582029</v>
+      </c>
+      <c r="H25">
+        <v>0.77804485537425938</v>
+      </c>
+      <c r="I25">
+        <v>0.83093354024514188</v>
+      </c>
+      <c r="J25">
+        <v>1.148696830434182</v>
+      </c>
+      <c r="K25">
+        <v>1.1109177517431841</v>
+      </c>
+      <c r="L25">
+        <v>0.77372636119068328</v>
+      </c>
+      <c r="M25">
+        <v>0.58111013305748838</v>
+      </c>
+      <c r="N25">
+        <v>0.2308831216744244</v>
+      </c>
+      <c r="O25">
+        <v>3.453255747126048E-2</v>
+      </c>
+      <c r="P25">
+        <v>1.2298852979232539E-5</v>
+      </c>
+      <c r="Q25">
+        <v>9.1351283341708809E-6</v>
+      </c>
+      <c r="R25">
+        <v>6.020974158389122E-6</v>
+      </c>
+      <c r="S25">
+        <v>6.3000370430396302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4.7058823182734043E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.21741762141631751</v>
+      </c>
+      <c r="G26">
+        <v>0.49036286275298668</v>
+      </c>
+      <c r="H26">
+        <v>0.7649593714465821</v>
+      </c>
+      <c r="I26">
+        <v>0.89986300997516222</v>
+      </c>
+      <c r="J26">
+        <v>0.96341309682628173</v>
+      </c>
+      <c r="K26">
+        <v>1.173340850625548</v>
+      </c>
+      <c r="L26">
+        <v>0.94885129408387336</v>
+      </c>
+      <c r="M26">
+        <v>0.70345415679630341</v>
+      </c>
+      <c r="N26">
+        <v>0.24369085628111939</v>
+      </c>
+      <c r="O26">
+        <v>5.0336395492948681E-2</v>
+      </c>
+      <c r="P26">
+        <v>1.4362616105122531E-5</v>
+      </c>
+      <c r="Q26">
+        <v>1.0272156668633031E-5</v>
+      </c>
+      <c r="R26">
+        <v>1.2950389341679861E-5</v>
+      </c>
+      <c r="S26">
+        <v>6.5027859240419721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>6.3191257665763834E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.2735183051506434</v>
+      </c>
+      <c r="G27">
+        <v>0.33636052620986789</v>
+      </c>
+      <c r="H27">
+        <v>0.57874515451583464</v>
+      </c>
+      <c r="I27">
+        <v>0.74006785302397693</v>
+      </c>
+      <c r="J27">
+        <v>0.81398920868264757</v>
+      </c>
+      <c r="K27">
+        <v>0.83714225069675985</v>
+      </c>
+      <c r="L27">
+        <v>0.82229695805988068</v>
+      </c>
+      <c r="M27">
+        <v>0.54635375089959692</v>
+      </c>
+      <c r="N27">
+        <v>0.27759469813020737</v>
+      </c>
+      <c r="O27">
+        <v>4.0351247589000952E-2</v>
+      </c>
+      <c r="P27">
+        <v>1.6281037030972492E-5</v>
+      </c>
+      <c r="Q27">
+        <v>1.082436104787482E-5</v>
+      </c>
+      <c r="R27">
+        <v>6.091723387356965E-6</v>
+      </c>
+      <c r="S27">
+        <v>5.3296444077456453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>6.9157459259563778E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.20707895588664679</v>
+      </c>
+      <c r="G28">
+        <v>0.28338805111585358</v>
+      </c>
+      <c r="H28">
+        <v>0.59019611999094013</v>
+      </c>
+      <c r="I28">
+        <v>0.68614527124323277</v>
+      </c>
+      <c r="J28">
+        <v>0.71481080681410991</v>
+      </c>
+      <c r="K28">
+        <v>0.96221670846453655</v>
+      </c>
+      <c r="L28">
+        <v>0.93410796742351088</v>
+      </c>
+      <c r="M28">
+        <v>0.73200869162420545</v>
+      </c>
+      <c r="N28">
+        <v>0.35459835868575068</v>
+      </c>
+      <c r="O28">
+        <v>4.8811969375468472E-2</v>
+      </c>
+      <c r="P28">
+        <v>1.180797212969506E-5</v>
+      </c>
+      <c r="Q28">
+        <v>1.1822664543445789E-5</v>
+      </c>
+      <c r="R28">
+        <v>1.01613164687284E-5</v>
+      </c>
+      <c r="S28">
+        <v>5.5825541518369617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.10959942265835181</v>
+      </c>
+      <c r="F29">
+        <v>0.14312516718397081</v>
+      </c>
+      <c r="G29">
+        <v>0.196390164723314</v>
+      </c>
+      <c r="H29">
+        <v>0.35923233428158058</v>
+      </c>
+      <c r="I29">
+        <v>0.49814464851999479</v>
+      </c>
+      <c r="J29">
+        <v>0.46989527508425438</v>
+      </c>
+      <c r="K29">
+        <v>0.59716495564567307</v>
+      </c>
+      <c r="L29">
+        <v>0.47410850604828519</v>
+      </c>
+      <c r="M29">
+        <v>0.45339675914492811</v>
+      </c>
+      <c r="N29">
+        <v>0.28328374230302428</v>
+      </c>
+      <c r="O29">
+        <v>4.7359345317351753E-2</v>
+      </c>
+      <c r="P29">
+        <v>1.349783035371988E-5</v>
+      </c>
+      <c r="Q29">
+        <v>6.587399251519834E-6</v>
+      </c>
+      <c r="R29">
+        <v>6.6571675591286492E-6</v>
+      </c>
+      <c r="S29">
+        <v>3.6317270633078929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3.1588089056084338E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.6569382532579589E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.6643460665597204E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.1181256574860247</v>
+      </c>
+      <c r="I30">
+        <v>0.12977954932630731</v>
+      </c>
+      <c r="J30">
+        <v>0.1534408116648435</v>
+      </c>
+      <c r="K30">
+        <v>0.1649304263855208</v>
+      </c>
+      <c r="L30">
+        <v>0.16208452102074389</v>
+      </c>
+      <c r="M30">
+        <v>0.12774223490284589</v>
+      </c>
+      <c r="N30">
+        <v>9.8457967317108E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.386927159379627E-2</v>
+      </c>
+      <c r="P30">
+        <v>2.030195801259054E-5</v>
+      </c>
+      <c r="Q30">
+        <v>8.2610215574613784E-6</v>
+      </c>
+      <c r="R30">
+        <v>1.483981821636681E-5</v>
+      </c>
+      <c r="S30">
+        <v>1.0832747747492379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>7.602995211457355E-6</v>
+      </c>
+      <c r="D31">
+        <v>3.3632675385513442E-6</v>
+      </c>
+      <c r="E31">
+        <v>7.6485529562267413E-6</v>
+      </c>
+      <c r="F31">
+        <v>2.276215322644046E-5</v>
+      </c>
+      <c r="G31">
+        <v>3.1493335121439779E-5</v>
+      </c>
+      <c r="H31">
+        <v>7.8930841022094474E-5</v>
+      </c>
+      <c r="I31">
+        <v>7.2421284181055644E-5</v>
+      </c>
+      <c r="J31">
+        <v>2.9174820295804419E-5</v>
+      </c>
+      <c r="K31">
+        <v>6.6187373191408909E-5</v>
+      </c>
+      <c r="L31">
+        <v>5.9569323761485908E-5</v>
+      </c>
+      <c r="M31">
+        <v>7.7071349967688558E-5</v>
+      </c>
+      <c r="N31">
+        <v>5.3068774755054708E-5</v>
+      </c>
+      <c r="O31">
+        <v>4.6603011672983138E-5</v>
+      </c>
+      <c r="P31">
+        <v>1.41633235369618E-5</v>
+      </c>
+      <c r="Q31">
+        <v>2.490662050944626E-5</v>
+      </c>
+      <c r="R31">
+        <v>1.191090375257413E-5</v>
+      </c>
+      <c r="S31">
+        <v>6.0687793070067367E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>5.7886384028014932E-55</v>
+      </c>
+      <c r="D32">
+        <v>7.8878514941672328E-42</v>
+      </c>
+      <c r="E32">
+        <v>2.5483041238549718E-6</v>
+      </c>
+      <c r="F32">
+        <v>2.6064819095335219E-5</v>
+      </c>
+      <c r="G32">
+        <v>1.6803620529205902E-5</v>
+      </c>
+      <c r="H32">
+        <v>2.1244673880160619E-5</v>
+      </c>
+      <c r="I32">
+        <v>3.5726760291416863E-5</v>
+      </c>
+      <c r="J32">
+        <v>4.0237703289940033E-5</v>
+      </c>
+      <c r="K32">
+        <v>3.5640193483851463E-5</v>
+      </c>
+      <c r="L32">
+        <v>3.0976925222088772E-5</v>
+      </c>
+      <c r="M32">
+        <v>2.1305338212640379E-5</v>
+      </c>
+      <c r="N32">
+        <v>4.497094136823173E-5</v>
+      </c>
+      <c r="O32">
+        <v>2.6136837287911721E-5</v>
+      </c>
+      <c r="P32">
+        <v>1.6826620345055789E-5</v>
+      </c>
+      <c r="Q32">
+        <v>1.6651432203896709E-5</v>
+      </c>
+      <c r="R32">
+        <v>2.6082281328611461E-5</v>
+      </c>
+      <c r="S32">
+        <v>3.612164506622016E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2.3572127101661981E-141</v>
+      </c>
+      <c r="D33">
+        <v>9.0687167409415162E-97</v>
+      </c>
+      <c r="E33">
+        <v>1.186371221506312E-89</v>
+      </c>
+      <c r="F33">
+        <v>9.3993407642334476E-22</v>
+      </c>
+      <c r="G33">
+        <v>4.6600045172900577E-5</v>
+      </c>
+      <c r="H33">
+        <v>4.6966401121414998E-5</v>
+      </c>
+      <c r="I33">
+        <v>4.6931608219698722E-5</v>
+      </c>
+      <c r="J33">
+        <v>8.4218404379323794E-5</v>
+      </c>
+      <c r="K33">
+        <v>2.7778816787032399E-5</v>
+      </c>
+      <c r="L33">
+        <v>1.0329437771122591E-5</v>
+      </c>
+      <c r="M33">
+        <v>1.068036175255475E-5</v>
+      </c>
+      <c r="N33">
+        <v>7.2634182602282728E-75</v>
+      </c>
+      <c r="O33">
+        <v>1.1007397129367039E-65</v>
+      </c>
+      <c r="P33">
+        <v>1.0283167122541059E-5</v>
+      </c>
+      <c r="Q33">
+        <v>5.1690299352079659E-49</v>
+      </c>
+      <c r="R33">
+        <v>8.2804050872286741E-43</v>
+      </c>
+      <c r="S33">
+        <v>2.837882423265888E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4207,70 +7413,70 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4278,7 +7484,7 @@
       <c r="A2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -4335,7 +7541,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -4392,7 +7598,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -4449,7 +7655,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -4506,7 +7712,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4563,7 +7769,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -4620,7 +7826,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -4677,7 +7883,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -4734,7 +7940,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -4791,7 +7997,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -4848,7 +8054,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -4905,7 +8111,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -4962,7 +8168,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -5019,7 +8225,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -5076,7 +8282,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -5133,7 +8339,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -5188,9 +8394,924 @@
         <v>1.6363630463536321</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.78194110341954004</v>
+      </c>
+      <c r="D18">
+        <v>0.35605099517111582</v>
+      </c>
+      <c r="E18">
+        <v>0.1825236280526995</v>
+      </c>
+      <c r="F18">
+        <v>0.14100898967103959</v>
+      </c>
+      <c r="G18">
+        <v>0.22483298506908181</v>
+      </c>
+      <c r="H18">
+        <v>0.33639471356341127</v>
+      </c>
+      <c r="I18">
+        <v>0.38951504461694941</v>
+      </c>
+      <c r="J18">
+        <v>0.34268836328931429</v>
+      </c>
+      <c r="K18">
+        <v>0.2437145499287065</v>
+      </c>
+      <c r="L18">
+        <v>0.1916213248613699</v>
+      </c>
+      <c r="M18">
+        <v>0.24773446590840489</v>
+      </c>
+      <c r="N18">
+        <v>0.21725590181941859</v>
+      </c>
+      <c r="O18">
+        <v>0.150219549274756</v>
+      </c>
+      <c r="P18">
+        <v>0.12551597698684841</v>
+      </c>
+      <c r="Q18">
+        <v>7.1103230521430777E-2</v>
+      </c>
+      <c r="R18">
+        <v>3.4367063611636037E-2</v>
+      </c>
+      <c r="S18">
+        <v>4.0364878857657231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.38768509253006461</v>
+      </c>
+      <c r="D19">
+        <v>1.5359997335150879</v>
+      </c>
+      <c r="E19">
+        <v>0.56391949308001699</v>
+      </c>
+      <c r="F19">
+        <v>0.1635953095824052</v>
+      </c>
+      <c r="G19">
+        <v>0.13067963086504741</v>
+      </c>
+      <c r="H19">
+        <v>0.25408270622989121</v>
+      </c>
+      <c r="I19">
+        <v>0.31081033220528659</v>
+      </c>
+      <c r="J19">
+        <v>0.35397834043064502</v>
+      </c>
+      <c r="K19">
+        <v>0.31449193162447048</v>
+      </c>
+      <c r="L19">
+        <v>0.16772867158569971</v>
+      </c>
+      <c r="M19">
+        <v>0.14366219630080651</v>
+      </c>
+      <c r="N19">
+        <v>0.15636618854367751</v>
+      </c>
+      <c r="O19">
+        <v>0.15126272330882939</v>
+      </c>
+      <c r="P19">
+        <v>0.109607067862216</v>
+      </c>
+      <c r="Q19">
+        <v>4.6946613976119163E-2</v>
+      </c>
+      <c r="R19">
+        <v>3.5614181863736397E-2</v>
+      </c>
+      <c r="S19">
+        <v>4.8264302135039996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.1251298793549849</v>
+      </c>
+      <c r="D20">
+        <v>0.69975347208286087</v>
+      </c>
+      <c r="E20">
+        <v>2.479569354511006</v>
+      </c>
+      <c r="F20">
+        <v>0.40533291994199488</v>
+      </c>
+      <c r="G20">
+        <v>0.2528629091771647</v>
+      </c>
+      <c r="H20">
+        <v>0.20950659147335701</v>
+      </c>
+      <c r="I20">
+        <v>0.24231504206773971</v>
+      </c>
+      <c r="J20">
+        <v>0.29706646738030312</v>
+      </c>
+      <c r="K20">
+        <v>0.36029368764998981</v>
+      </c>
+      <c r="L20">
+        <v>0.25407542133007338</v>
+      </c>
+      <c r="M20">
+        <v>0.17854239030050131</v>
+      </c>
+      <c r="N20">
+        <v>0.11662078372551581</v>
+      </c>
+      <c r="O20">
+        <v>8.5243975686119744E-2</v>
+      </c>
+      <c r="P20">
+        <v>8.5622527754867533E-2</v>
+      </c>
+      <c r="Q20">
+        <v>5.4901188318233922E-2</v>
+      </c>
+      <c r="R20">
+        <v>4.8535991193385711E-2</v>
+      </c>
+      <c r="S20">
+        <v>5.8953726019480994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>7.145178807234874E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.23659089587277141</v>
+      </c>
+      <c r="E21">
+        <v>1.10281473300086</v>
+      </c>
+      <c r="F21">
+        <v>3.4589033459036842</v>
+      </c>
+      <c r="G21">
+        <v>0.7897981479408025</v>
+      </c>
+      <c r="H21">
+        <v>0.36191206822615651</v>
+      </c>
+      <c r="I21">
+        <v>0.22964790560314141</v>
+      </c>
+      <c r="J21">
+        <v>0.28190112634835768</v>
+      </c>
+      <c r="K21">
+        <v>0.30321235059149593</v>
+      </c>
+      <c r="L21">
+        <v>0.29933943945009728</v>
+      </c>
+      <c r="M21">
+        <v>0.14455252969973259</v>
+      </c>
+      <c r="N21">
+        <v>7.5401211123826417E-2</v>
+      </c>
+      <c r="O21">
+        <v>5.7563074625212388E-2</v>
+      </c>
+      <c r="P21">
+        <v>5.0889227696345227E-2</v>
+      </c>
+      <c r="Q21">
+        <v>2.7410371336876752E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.8697065368957311E-2</v>
+      </c>
+      <c r="S21">
+        <v>7.5100852808606664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>9.5673166776436433E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.1281795902923048</v>
+      </c>
+      <c r="E22">
+        <v>0.19144194806490239</v>
+      </c>
+      <c r="F22">
+        <v>1.2893133600234481</v>
+      </c>
+      <c r="G22">
+        <v>1.966561875661561</v>
+      </c>
+      <c r="H22">
+        <v>0.76159968696494185</v>
+      </c>
+      <c r="I22">
+        <v>0.45218866921970807</v>
+      </c>
+      <c r="J22">
+        <v>0.30794740517281088</v>
+      </c>
+      <c r="K22">
+        <v>0.25152897899160997</v>
+      </c>
+      <c r="L22">
+        <v>0.32561658896208701</v>
+      </c>
+      <c r="M22">
+        <v>0.21152347728831511</v>
+      </c>
+      <c r="N22">
+        <v>0.1471479888630734</v>
+      </c>
+      <c r="O22">
+        <v>6.1660202130527697E-2</v>
+      </c>
+      <c r="P22">
+        <v>4.6011977516159958E-2</v>
+      </c>
+      <c r="Q22">
+        <v>4.5510481615780307E-2</v>
+      </c>
+      <c r="R22">
+        <v>3.6835908768962797E-2</v>
+      </c>
+      <c r="S22">
+        <v>6.3187413063126296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.1620198093160572</v>
+      </c>
+      <c r="D23">
+        <v>8.8593977768837248E-2</v>
+      </c>
+      <c r="E23">
+        <v>7.9900122597696216E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.32667098330157412</v>
+      </c>
+      <c r="G23">
+        <v>0.86076912615532564</v>
+      </c>
+      <c r="H23">
+        <v>1.076146398908951</v>
+      </c>
+      <c r="I23">
+        <v>0.61310408134011818</v>
+      </c>
+      <c r="J23">
+        <v>0.42091386447883522</v>
+      </c>
+      <c r="K23">
+        <v>0.29559227616563888</v>
+      </c>
+      <c r="L23">
+        <v>0.2970796492008706</v>
+      </c>
+      <c r="M23">
+        <v>0.2686160397228709</v>
+      </c>
+      <c r="N23">
+        <v>0.1512912850907441</v>
+      </c>
+      <c r="O23">
+        <v>6.2080306253224818E-2</v>
+      </c>
+      <c r="P23">
+        <v>4.4934284529989717E-2</v>
+      </c>
+      <c r="Q23">
+        <v>2.5431686667282849E-2</v>
+      </c>
+      <c r="R23">
+        <v>1.317150977532641E-2</v>
+      </c>
+      <c r="S23">
+        <v>4.7863154012733444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.16398345681096299</v>
+      </c>
+      <c r="D24">
+        <v>0.12259949030709801</v>
+      </c>
+      <c r="E24">
+        <v>0.18655822302870989</v>
+      </c>
+      <c r="F24">
+        <v>0.15552742018215451</v>
+      </c>
+      <c r="G24">
+        <v>0.38839143596949932</v>
+      </c>
+      <c r="H24">
+        <v>0.55942440048936404</v>
+      </c>
+      <c r="I24">
+        <v>0.70298147329404126</v>
+      </c>
+      <c r="J24">
+        <v>0.51458317262180109</v>
+      </c>
+      <c r="K24">
+        <v>0.34010665689454589</v>
+      </c>
+      <c r="L24">
+        <v>0.28845290956395642</v>
+      </c>
+      <c r="M24">
+        <v>0.31296378732147301</v>
+      </c>
+      <c r="N24">
+        <v>0.23726478595505679</v>
+      </c>
+      <c r="O24">
+        <v>0.1131057744775245</v>
+      </c>
+      <c r="P24">
+        <v>8.0178757181183544E-2</v>
+      </c>
+      <c r="Q24">
+        <v>3.6506760649086242E-2</v>
+      </c>
+      <c r="R24">
+        <v>3.4855967227013472E-2</v>
+      </c>
+      <c r="S24">
+        <v>4.2374844719734703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.15257068968777529</v>
+      </c>
+      <c r="D25">
+        <v>0.18916941214546479</v>
+      </c>
+      <c r="E25">
+        <v>0.14274336247129049</v>
+      </c>
+      <c r="F25">
+        <v>0.1104991078357585</v>
+      </c>
+      <c r="G25">
+        <v>0.24827158272670291</v>
+      </c>
+      <c r="H25">
+        <v>0.42691575602965809</v>
+      </c>
+      <c r="I25">
+        <v>0.5353254275163547</v>
+      </c>
+      <c r="J25">
+        <v>0.66867413734703074</v>
+      </c>
+      <c r="K25">
+        <v>0.48969040795469237</v>
+      </c>
+      <c r="L25">
+        <v>0.34888244724040052</v>
+      </c>
+      <c r="M25">
+        <v>0.2543994950427732</v>
+      </c>
+      <c r="N25">
+        <v>0.211792196474793</v>
+      </c>
+      <c r="O25">
+        <v>0.18942744314157281</v>
+      </c>
+      <c r="P25">
+        <v>0.12884122773039011</v>
+      </c>
+      <c r="Q25">
+        <v>6.8636260370630739E-2</v>
+      </c>
+      <c r="R25">
+        <v>2.7909276951500681E-2</v>
+      </c>
+      <c r="S25">
+        <v>4.193748230666789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.1096879221288577</v>
+      </c>
+      <c r="D26">
+        <v>0.14972404082789401</v>
+      </c>
+      <c r="E26">
+        <v>0.23498773328693459</v>
+      </c>
+      <c r="F26">
+        <v>0.15781687627165389</v>
+      </c>
+      <c r="G26">
+        <v>0.26719548725094849</v>
+      </c>
+      <c r="H26">
+        <v>0.31432825929962271</v>
+      </c>
+      <c r="I26">
+        <v>0.43469646281615271</v>
+      </c>
+      <c r="J26">
+        <v>0.48158177904406402</v>
+      </c>
+      <c r="K26">
+        <v>0.54860823755330546</v>
+      </c>
+      <c r="L26">
+        <v>0.37086371524002593</v>
+      </c>
+      <c r="M26">
+        <v>0.27220311022564631</v>
+      </c>
+      <c r="N26">
+        <v>0.13449859417755791</v>
+      </c>
+      <c r="O26">
+        <v>0.13268530113806759</v>
+      </c>
+      <c r="P26">
+        <v>9.1636762450784434E-2</v>
+      </c>
+      <c r="Q26">
+        <v>6.3045781138589663E-2</v>
+      </c>
+      <c r="R26">
+        <v>2.735266196349169E-2</v>
+      </c>
+      <c r="S26">
+        <v>3.7909127248135972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>3.6786909762668067E-2</v>
+      </c>
+      <c r="D27">
+        <v>6.3611365314176438E-2</v>
+      </c>
+      <c r="E27">
+        <v>8.3010099333258966E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.1655235657426449</v>
+      </c>
+      <c r="G27">
+        <v>0.2146052572628675</v>
+      </c>
+      <c r="H27">
+        <v>0.26099525291030612</v>
+      </c>
+      <c r="I27">
+        <v>0.32069757128469051</v>
+      </c>
+      <c r="J27">
+        <v>0.36729200192974071</v>
+      </c>
+      <c r="K27">
+        <v>0.37010494635850277</v>
+      </c>
+      <c r="L27">
+        <v>0.42109485901875993</v>
+      </c>
+      <c r="M27">
+        <v>0.35051125676922629</v>
+      </c>
+      <c r="N27">
+        <v>0.16857030520693209</v>
+      </c>
+      <c r="O27">
+        <v>0.1248567405519507</v>
+      </c>
+      <c r="P27">
+        <v>8.0434474570355588E-2</v>
+      </c>
+      <c r="Q27">
+        <v>6.4829499265598861E-2</v>
+      </c>
+      <c r="R27">
+        <v>5.1439988622535363E-2</v>
+      </c>
+      <c r="S27">
+        <v>3.144364093904215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>6.258801130876171E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.123569195890965</v>
+      </c>
+      <c r="E28">
+        <v>0.14052417390354369</v>
+      </c>
+      <c r="F28">
+        <v>0.21840555001033621</v>
+      </c>
+      <c r="G28">
+        <v>0.37621919849178947</v>
+      </c>
+      <c r="H28">
+        <v>0.46788947790959212</v>
+      </c>
+      <c r="I28">
+        <v>0.34355978157237382</v>
+      </c>
+      <c r="J28">
+        <v>0.34167288865746548</v>
+      </c>
+      <c r="K28">
+        <v>0.40607347860596799</v>
+      </c>
+      <c r="L28">
+        <v>0.50354765352933195</v>
+      </c>
+      <c r="M28">
+        <v>0.4231261619289643</v>
+      </c>
+      <c r="N28">
+        <v>0.35216904772151381</v>
+      </c>
+      <c r="O28">
+        <v>0.22288408984527661</v>
+      </c>
+      <c r="P28">
+        <v>0.1197911628772327</v>
+      </c>
+      <c r="Q28">
+        <v>7.1400852345011742E-2</v>
+      </c>
+      <c r="R28">
+        <v>4.9463714848553463E-2</v>
+      </c>
+      <c r="S28">
+        <v>4.2228844394466796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>8.9502044587093404E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.3779063898111447E-2</v>
+      </c>
+      <c r="E29">
+        <v>9.028688598728965E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.11203313923218849</v>
+      </c>
+      <c r="G29">
+        <v>0.26463236965018921</v>
+      </c>
+      <c r="H29">
+        <v>0.43702429706615492</v>
+      </c>
+      <c r="I29">
+        <v>0.45376278824406568</v>
+      </c>
+      <c r="J29">
+        <v>0.38600647458674958</v>
+      </c>
+      <c r="K29">
+        <v>0.39624187892099938</v>
+      </c>
+      <c r="L29">
+        <v>0.30999943753243442</v>
+      </c>
+      <c r="M29">
+        <v>0.4866279073701596</v>
+      </c>
+      <c r="N29">
+        <v>0.47728452766833213</v>
+      </c>
+      <c r="O29">
+        <v>0.32182696419174522</v>
+      </c>
+      <c r="P29">
+        <v>0.1767461963751914</v>
+      </c>
+      <c r="Q29">
+        <v>8.8588138227982338E-2</v>
+      </c>
+      <c r="R29">
+        <v>4.9430124617058403E-2</v>
+      </c>
+      <c r="S29">
+        <v>4.2237722381557461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>6.2648106939369314E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.2068324948483892E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.21325334032959E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.1032080675336315</v>
+      </c>
+      <c r="G30">
+        <v>0.20517676806130319</v>
+      </c>
+      <c r="H30">
+        <v>0.3093458458051922</v>
+      </c>
+      <c r="I30">
+        <v>0.31988749899775809</v>
+      </c>
+      <c r="J30">
+        <v>0.39308890230470672</v>
+      </c>
+      <c r="K30">
+        <v>0.35602437752956367</v>
+      </c>
+      <c r="L30">
+        <v>0.32004054247942187</v>
+      </c>
+      <c r="M30">
+        <v>0.3098089507980421</v>
+      </c>
+      <c r="N30">
+        <v>0.40335100114035233</v>
+      </c>
+      <c r="O30">
+        <v>0.36532829206722189</v>
+      </c>
+      <c r="P30">
+        <v>0.26209068515928402</v>
+      </c>
+      <c r="Q30">
+        <v>0.16623604370431941</v>
+      </c>
+      <c r="R30">
+        <v>7.1683784890429911E-2</v>
+      </c>
+      <c r="S30">
+        <v>3.7821197257623762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5.859314988650742E-2</v>
+      </c>
+      <c r="D31">
+        <v>8.1494683936792198E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.1875551996031513E-2</v>
+      </c>
+      <c r="F31">
+        <v>5.7097742601349817E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.1572159303405484</v>
+      </c>
+      <c r="H31">
+        <v>0.24057587787109291</v>
+      </c>
+      <c r="I31">
+        <v>0.30513400893882958</v>
+      </c>
+      <c r="J31">
+        <v>0.2803676629561318</v>
+      </c>
+      <c r="K31">
+        <v>0.28029593198544872</v>
+      </c>
+      <c r="L31">
+        <v>0.24740854518613051</v>
+      </c>
+      <c r="M31">
+        <v>0.29247916091707488</v>
+      </c>
+      <c r="N31">
+        <v>0.33272623362887283</v>
+      </c>
+      <c r="O31">
+        <v>0.32860533923188862</v>
+      </c>
+      <c r="P31">
+        <v>0.28166519507322652</v>
+      </c>
+      <c r="Q31">
+        <v>0.13495833874093971</v>
+      </c>
+      <c r="R31">
+        <v>8.2748673066352391E-2</v>
+      </c>
+      <c r="S31">
+        <v>3.213242026357217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1.985265427564769E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.4279046076249447E-2</v>
+      </c>
+      <c r="E32">
+        <v>6.3901328710242164E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.12468495067946241</v>
+      </c>
+      <c r="G32">
+        <v>0.10905245367335201</v>
+      </c>
+      <c r="H32">
+        <v>0.15580085244418579</v>
+      </c>
+      <c r="I32">
+        <v>0.1607814914493669</v>
+      </c>
+      <c r="J32">
+        <v>0.2294431425411689</v>
+      </c>
+      <c r="K32">
+        <v>0.28216144854909597</v>
+      </c>
+      <c r="L32">
+        <v>0.23608726005080091</v>
+      </c>
+      <c r="M32">
+        <v>0.20653018117892161</v>
+      </c>
+      <c r="N32">
+        <v>0.21668748973693</v>
+      </c>
+      <c r="O32">
+        <v>0.37137073957175559</v>
+      </c>
+      <c r="P32">
+        <v>0.32928053953043068</v>
+      </c>
+      <c r="Q32">
+        <v>0.27447522606738201</v>
+      </c>
+      <c r="R32">
+        <v>0.10282499706359879</v>
+      </c>
+      <c r="S32">
+        <v>2.9272138015985911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>3.1475914229959573E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.3690790733417818E-2</v>
+      </c>
+      <c r="E33">
+        <v>4.9844374087430823E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.879107205033225E-2</v>
+      </c>
+      <c r="G33">
+        <v>5.9433507858719162E-2</v>
+      </c>
+      <c r="H33">
+        <v>7.775414282274494E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.14792012828332449</v>
+      </c>
+      <c r="J33">
+        <v>0.1217290766080361</v>
+      </c>
+      <c r="K33">
+        <v>0.12196358153283041</v>
+      </c>
+      <c r="L33">
+        <v>0.1679094537997054</v>
+      </c>
+      <c r="M33">
+        <v>0.1309908066444101</v>
+      </c>
+      <c r="N33">
+        <v>0.1328018595067692</v>
+      </c>
+      <c r="O33">
+        <v>0.13088419767428169</v>
+      </c>
+      <c r="P33">
+        <v>0.17167678837729361</v>
+      </c>
+      <c r="Q33">
+        <v>0.1352237669403947</v>
+      </c>
+      <c r="R33">
+        <v>9.4273585203981713E-2</v>
+      </c>
+      <c r="S33">
+        <v>1.6363630463536321</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5198,10 +9319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,30 +9331,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B2">
@@ -5252,6 +9373,29 @@
         <v>9.4047669726395</v>
       </c>
       <c r="G2">
+        <v>3.8068824462269002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>27.8897414278293</v>
+      </c>
+      <c r="C3">
+        <v>24.7469210903324</v>
+      </c>
+      <c r="D3">
+        <v>24.7469210903324</v>
+      </c>
+      <c r="E3">
+        <v>9.4047669726395</v>
+      </c>
+      <c r="F3">
+        <v>9.4047669726395</v>
+      </c>
+      <c r="G3">
         <v>3.8068824462269002</v>
       </c>
     </row>
@@ -5265,7 +9409,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5289,25 +9433,25 @@
       <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -5347,15 +9491,36 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
@@ -6701,16 +10866,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C3A41-4386-8748-9118-AB71B95DC696}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,7 +10952,39 @@
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <v>20</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="14">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>110</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6797,10 +10994,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34677627-FE5B-AA47-B68E-F56E9F3F7CD6}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,6 +11077,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>110</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6890,7 +11119,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,25 +11143,25 @@
       <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -6944,7 +11173,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -6956,10 +11185,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
@@ -6972,15 +11201,36 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
@@ -8331,10 +12581,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8352,7 +12602,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
+      <c r="A1" s="29"/>
       <c r="B1" s="34" t="s">
         <v>40</v>
       </c>
@@ -8366,39 +12616,39 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B3">
@@ -8426,6 +12676,38 @@
         <v>0.1</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.11</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
     </row>
@@ -8439,20 +12721,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N249"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
@@ -8464,46 +12746,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8511,13 +12793,13 @@
       <c r="A2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>69</v>
+      <c r="B2" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="28">
+        <v>74</v>
+      </c>
+      <c r="D2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="17">
@@ -8536,76 +12818,272 @@
         <v>1</v>
       </c>
       <c r="J2" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="N2" s="18">
-        <v>43962</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="18">
+        <v>43918</v>
+      </c>
+      <c r="N3" s="18">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39">
+        <v>1</v>
+      </c>
+      <c r="G4" s="39">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="18">
+        <v>43992</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="29">
+      <c r="C6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I6" s="17">
         <v>1</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18">
+        <v>43906</v>
+      </c>
+      <c r="N6" s="18">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="27">
         <v>1</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="18">
-        <v>43962</v>
-      </c>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7"/>
-      <c r="D7"/>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="18">
+        <v>43920</v>
+      </c>
+      <c r="N7" s="18">
+        <v>43967</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8"/>
-      <c r="D8"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="18">
+        <v>43967</v>
+      </c>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="D9"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10"/>
@@ -9567,9 +14045,18 @@
       <c r="B249"/>
       <c r="D249"/>
     </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250"/>
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251"/>
+      <c r="D251"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9578,10 +14065,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9591,43 +14078,45 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -9650,24 +14139,24 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="1">
         <v>43897</v>
       </c>
       <c r="C2" s="1">
-        <v>44105</v>
+        <v>44256</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="F2">
         <f>5640000/E2</f>
-        <v>282</v>
+        <v>75.2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9691,19 +14180,76 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="R2">
-        <v>1000</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44257</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>75000</v>
+      </c>
+      <c r="F3">
+        <f>7279000/E3</f>
+        <v>97.053333333333327</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1.2</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>370</v>
+      </c>
+      <c r="Q3">
+        <v>7000</v>
+      </c>
+      <c r="R3">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
